--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -133,42 +133,48 @@
     <t>CAGAT</t>
   </si>
   <si>
+    <t>TGGGA</t>
+  </si>
+  <si>
+    <t>ACATC</t>
+  </si>
+  <si>
+    <t>GATTA</t>
+  </si>
+  <si>
+    <t>TACTA</t>
+  </si>
+  <si>
+    <t>AGTGG</t>
+  </si>
+  <si>
+    <t>AGTGA</t>
+  </si>
+  <si>
+    <t>GGTGC</t>
+  </si>
+  <si>
+    <t>AGTTC</t>
+  </si>
+  <si>
+    <t>TCAAG</t>
+  </si>
+  <si>
+    <t>TCACT</t>
+  </si>
+  <si>
+    <t>TCACA</t>
+  </si>
+  <si>
+    <t>CTGCT</t>
+  </si>
+  <si>
+    <t>CTTAT</t>
+  </si>
+  <si>
     <t>TGCTA</t>
   </si>
   <si>
-    <t>TGGGA</t>
-  </si>
-  <si>
-    <t>ACATC</t>
-  </si>
-  <si>
-    <t>GATTA</t>
-  </si>
-  <si>
-    <t>TACTA</t>
-  </si>
-  <si>
-    <t>AGTGA</t>
-  </si>
-  <si>
-    <t>GGTGC</t>
-  </si>
-  <si>
-    <t>AGTTC</t>
-  </si>
-  <si>
-    <t>TCACT</t>
-  </si>
-  <si>
-    <t>TCACA</t>
-  </si>
-  <si>
-    <t>CTGCT</t>
-  </si>
-  <si>
-    <t>CTTAT</t>
-  </si>
-  <si>
     <t>ACCTG</t>
   </si>
   <si>
@@ -208,9 +214,6 @@
     <t>CGTGC</t>
   </si>
   <si>
-    <t>ATTGC</t>
-  </si>
-  <si>
     <t>ACTGC</t>
   </si>
   <si>
@@ -220,24 +223,18 @@
     <t>AGTAC</t>
   </si>
   <si>
-    <t>AGTGG</t>
-  </si>
-  <si>
     <t>AATGC</t>
   </si>
   <si>
     <t>AGTGT</t>
   </si>
   <si>
+    <t>TCAGG</t>
+  </si>
+  <si>
     <t>GCACG</t>
   </si>
   <si>
-    <t>TCAAG</t>
-  </si>
-  <si>
-    <t>CTGTT</t>
-  </si>
-  <si>
     <t>CGGAT</t>
   </si>
   <si>
@@ -256,10 +253,16 @@
     <t>TGCGG</t>
   </si>
   <si>
+    <t>AGGTG</t>
+  </si>
+  <si>
     <t>AGCGG</t>
   </si>
   <si>
     <t>GCATT</t>
+  </si>
+  <si>
+    <t>GCATG</t>
   </si>
   <si>
     <t>GCATA</t>
@@ -662,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -759,7 +762,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -799,7 +802,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -819,7 +822,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -839,7 +842,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -879,7 +882,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -899,7 +902,7 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -939,7 +942,7 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -959,7 +962,7 @@
         <v>31</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -979,7 +982,7 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1130,10 +1133,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -1150,16 +1153,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1190,10 +1193,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -1310,10 +1313,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
@@ -1350,10 +1353,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>51</v>
@@ -1370,10 +1373,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
@@ -1390,16 +1393,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1410,16 +1413,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1430,10 +1433,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
@@ -1470,10 +1473,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
@@ -1490,10 +1493,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
@@ -1510,10 +1513,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
@@ -1530,10 +1533,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
@@ -1590,10 +1593,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
@@ -1610,10 +1613,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
@@ -1870,10 +1873,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
@@ -1910,10 +1913,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -1990,10 +1993,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
@@ -2010,19 +2013,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2039,7 +2042,7 @@
         <v>85</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -2150,10 +2153,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
@@ -2210,10 +2213,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
         <v>94</v>
@@ -2250,10 +2253,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
         <v>96</v>
@@ -2262,6 +2265,26 @@
         <v>1</v>
       </c>
       <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
         <v>2</v>
       </c>
     </row>

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -157,87 +157,93 @@
     <t>AGTTC</t>
   </si>
   <si>
+    <t>TCACT</t>
+  </si>
+  <si>
+    <t>TCACA</t>
+  </si>
+  <si>
+    <t>CTGCT</t>
+  </si>
+  <si>
+    <t>CTTAT</t>
+  </si>
+  <si>
+    <t>TGCTA</t>
+  </si>
+  <si>
+    <t>ACCTG</t>
+  </si>
+  <si>
+    <t>TACAA</t>
+  </si>
+  <si>
+    <t>GATGA</t>
+  </si>
+  <si>
+    <t>CAATA</t>
+  </si>
+  <si>
+    <t>CGGTA</t>
+  </si>
+  <si>
+    <t>GGATA</t>
+  </si>
+  <si>
+    <t>GCACA</t>
+  </si>
+  <si>
+    <t>GTACT</t>
+  </si>
+  <si>
+    <t>GACTG</t>
+  </si>
+  <si>
+    <t>GGCTA</t>
+  </si>
+  <si>
+    <t>GACTT</t>
+  </si>
+  <si>
+    <t>GACTC</t>
+  </si>
+  <si>
+    <t>CGTGC</t>
+  </si>
+  <si>
+    <t>ATTGC</t>
+  </si>
+  <si>
+    <t>ACTGC</t>
+  </si>
+  <si>
+    <t>AGTCC</t>
+  </si>
+  <si>
+    <t>AGTAC</t>
+  </si>
+  <si>
+    <t>AATGC</t>
+  </si>
+  <si>
+    <t>AGTGT</t>
+  </si>
+  <si>
+    <t>GCACG</t>
+  </si>
+  <si>
+    <t>TCTCG</t>
+  </si>
+  <si>
     <t>TCAAG</t>
   </si>
   <si>
-    <t>TCACT</t>
-  </si>
-  <si>
-    <t>TCACA</t>
-  </si>
-  <si>
-    <t>CTGCT</t>
-  </si>
-  <si>
-    <t>CTTAT</t>
-  </si>
-  <si>
-    <t>TGCTA</t>
-  </si>
-  <si>
-    <t>ACCTG</t>
-  </si>
-  <si>
-    <t>TACAA</t>
-  </si>
-  <si>
-    <t>GATGA</t>
-  </si>
-  <si>
-    <t>CAATA</t>
-  </si>
-  <si>
-    <t>CGGTA</t>
-  </si>
-  <si>
-    <t>GGATA</t>
-  </si>
-  <si>
-    <t>GCACA</t>
-  </si>
-  <si>
-    <t>GTACT</t>
-  </si>
-  <si>
-    <t>GACTG</t>
-  </si>
-  <si>
-    <t>GGCTA</t>
-  </si>
-  <si>
-    <t>GACTT</t>
-  </si>
-  <si>
-    <t>GACTC</t>
-  </si>
-  <si>
-    <t>CGTGC</t>
-  </si>
-  <si>
-    <t>ACTGC</t>
-  </si>
-  <si>
-    <t>AGTCC</t>
-  </si>
-  <si>
-    <t>AGTAC</t>
-  </si>
-  <si>
-    <t>AATGC</t>
-  </si>
-  <si>
-    <t>AGTGT</t>
-  </si>
-  <si>
-    <t>TCAGG</t>
-  </si>
-  <si>
-    <t>GCACG</t>
-  </si>
-  <si>
     <t>CGGAT</t>
   </si>
   <si>
+    <t>GTGAT</t>
+  </si>
+  <si>
     <t>CTCAT</t>
   </si>
   <si>
@@ -260,9 +266,6 @@
   </si>
   <si>
     <t>GCATT</t>
-  </si>
-  <si>
-    <t>GCATG</t>
   </si>
   <si>
     <t>GCATA</t>
@@ -665,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -722,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -762,7 +765,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -782,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -802,7 +805,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -822,7 +825,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -862,7 +865,7 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -902,7 +905,7 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -942,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -962,7 +965,7 @@
         <v>31</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1313,10 +1316,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
@@ -1353,10 +1356,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>51</v>
@@ -1373,10 +1376,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
@@ -1393,10 +1396,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -1413,16 +1416,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1433,10 +1436,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
@@ -1493,10 +1496,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
@@ -1533,10 +1536,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
@@ -1613,10 +1616,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
@@ -1793,10 +1796,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
@@ -1873,10 +1876,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
@@ -1893,10 +1896,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
@@ -1913,10 +1916,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -1933,10 +1936,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -1953,10 +1956,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1973,10 +1976,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
         <v>82</v>
@@ -2013,10 +2016,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
@@ -2033,19 +2036,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2062,7 +2065,7 @@
         <v>86</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -2173,10 +2176,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D76" t="s">
         <v>92</v>
@@ -2233,10 +2236,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
         <v>95</v>
@@ -2273,10 +2276,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
         <v>97</v>
@@ -2285,6 +2288,26 @@
         <v>1</v>
       </c>
       <c r="F81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
         <v>2</v>
       </c>
     </row>

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -55,12 +55,12 @@
     <t>l3Sp</t>
   </si>
   <si>
+    <t>l7Sp</t>
+  </si>
+  <si>
     <t>l1Sp</t>
   </si>
   <si>
-    <t>l7Sp</t>
-  </si>
-  <si>
     <t>l2Sp</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>TCACG</t>
   </si>
   <si>
+    <t>GTGAC</t>
+  </si>
+  <si>
     <t>GACTA</t>
   </si>
   <si>
-    <t>GTGAC</t>
-  </si>
-  <si>
     <t>AGTGC</t>
   </si>
   <si>
@@ -130,45 +130,51 @@
     <t>TCCCG</t>
   </si>
   <si>
+    <t>TGGGA</t>
+  </si>
+  <si>
+    <t>ACATC</t>
+  </si>
+  <si>
+    <t>GATTA</t>
+  </si>
+  <si>
+    <t>TACTA</t>
+  </si>
+  <si>
+    <t>AGTGG</t>
+  </si>
+  <si>
+    <t>AGTGA</t>
+  </si>
+  <si>
+    <t>GGTGC</t>
+  </si>
+  <si>
+    <t>AGTCC</t>
+  </si>
+  <si>
+    <t>AGTTC</t>
+  </si>
+  <si>
+    <t>TCAAG</t>
+  </si>
+  <si>
+    <t>TCACT</t>
+  </si>
+  <si>
+    <t>TCACA</t>
+  </si>
+  <si>
+    <t>CTGCT</t>
+  </si>
+  <si>
+    <t>CTTAT</t>
+  </si>
+  <si>
     <t>CAGAT</t>
   </si>
   <si>
-    <t>TGGGA</t>
-  </si>
-  <si>
-    <t>ACATC</t>
-  </si>
-  <si>
-    <t>GATTA</t>
-  </si>
-  <si>
-    <t>TACTA</t>
-  </si>
-  <si>
-    <t>AGTGG</t>
-  </si>
-  <si>
-    <t>AGTGA</t>
-  </si>
-  <si>
-    <t>GGTGC</t>
-  </si>
-  <si>
-    <t>AGTTC</t>
-  </si>
-  <si>
-    <t>TCACT</t>
-  </si>
-  <si>
-    <t>TCACA</t>
-  </si>
-  <si>
-    <t>CTGCT</t>
-  </si>
-  <si>
-    <t>CTTAT</t>
-  </si>
-  <si>
     <t>TGCTA</t>
   </si>
   <si>
@@ -205,21 +211,12 @@
     <t>GACTT</t>
   </si>
   <si>
-    <t>GACTC</t>
-  </si>
-  <si>
     <t>CGTGC</t>
   </si>
   <si>
-    <t>ATTGC</t>
-  </si>
-  <si>
     <t>ACTGC</t>
   </si>
   <si>
-    <t>AGTCC</t>
-  </si>
-  <si>
     <t>AGTAC</t>
   </si>
   <si>
@@ -229,21 +226,18 @@
     <t>AGTGT</t>
   </si>
   <si>
+    <t>TCAGG</t>
+  </si>
+  <si>
     <t>GCACG</t>
   </si>
   <si>
     <t>TCTCG</t>
   </si>
   <si>
-    <t>TCAAG</t>
-  </si>
-  <si>
     <t>CGGAT</t>
   </si>
   <si>
-    <t>GTGAT</t>
-  </si>
-  <si>
     <t>CTCAT</t>
   </si>
   <si>
@@ -259,13 +253,13 @@
     <t>TGCGG</t>
   </si>
   <si>
-    <t>AGGTG</t>
-  </si>
-  <si>
     <t>AGCGG</t>
   </si>
   <si>
     <t>GCATT</t>
+  </si>
+  <si>
+    <t>GCATG</t>
   </si>
   <si>
     <t>GCATA</t>
@@ -668,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -745,7 +739,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -765,7 +759,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -785,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -805,7 +799,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -825,7 +819,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -865,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -885,7 +879,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -925,7 +919,7 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -945,7 +939,7 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -996,10 +990,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -1056,10 +1050,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -1096,10 +1090,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -1116,10 +1110,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -1136,16 +1130,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1156,10 +1150,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
@@ -1176,10 +1170,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
@@ -1316,10 +1310,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
@@ -1356,10 +1350,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>51</v>
@@ -1376,10 +1370,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
@@ -1396,10 +1390,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -1416,16 +1410,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1436,16 +1430,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1456,10 +1450,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
@@ -1496,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
@@ -1516,10 +1510,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
@@ -1536,10 +1530,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
@@ -1556,10 +1550,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
         <v>61</v>
@@ -1576,10 +1570,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
         <v>62</v>
@@ -1596,10 +1590,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
@@ -1616,10 +1610,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
@@ -1736,10 +1730,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
@@ -1796,10 +1790,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
@@ -1876,10 +1870,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
@@ -1896,10 +1890,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
@@ -1916,10 +1910,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -1936,10 +1930,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -1956,10 +1950,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1976,10 +1970,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
         <v>82</v>
@@ -1996,10 +1990,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
@@ -2016,19 +2010,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2036,10 +2030,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
@@ -2048,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2056,16 +2050,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -2076,10 +2070,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
         <v>87</v>
@@ -2096,10 +2090,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
         <v>88</v>
@@ -2116,10 +2110,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
@@ -2136,10 +2130,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
@@ -2156,10 +2150,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
@@ -2176,10 +2170,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
         <v>92</v>
@@ -2216,10 +2210,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
         <v>94</v>
@@ -2236,10 +2230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
         <v>95</v>
@@ -2256,10 +2250,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
         <v>96</v>
@@ -2268,46 +2262,6 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
         <v>2</v>
       </c>
     </row>

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/ALL_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -49,18 +49,18 @@
     <t>l5Sp</t>
   </si>
   <si>
+    <t>l3Sp</t>
+  </si>
+  <si>
     <t>l8Sp</t>
   </si>
   <si>
-    <t>l3Sp</t>
+    <t>l1Sp</t>
   </si>
   <si>
     <t>l7Sp</t>
   </si>
   <si>
-    <t>l1Sp</t>
-  </si>
-  <si>
     <t>l2Sp</t>
   </si>
   <si>
@@ -85,18 +85,18 @@
     <t>TGCGA</t>
   </si>
   <si>
+    <t>TCACG</t>
+  </si>
+  <si>
     <t>GCATC</t>
   </si>
   <si>
-    <t>TCACG</t>
+    <t>GACTA</t>
   </si>
   <si>
     <t>GTGAC</t>
   </si>
   <si>
-    <t>GACTA</t>
-  </si>
-  <si>
     <t>AGTGC</t>
   </si>
   <si>
@@ -130,6 +130,12 @@
     <t>TCCCG</t>
   </si>
   <si>
+    <t>CAGAT</t>
+  </si>
+  <si>
+    <t>TGCTA</t>
+  </si>
+  <si>
     <t>TGGGA</t>
   </si>
   <si>
@@ -142,99 +148,93 @@
     <t>TACTA</t>
   </si>
   <si>
+    <t>AGTGA</t>
+  </si>
+  <si>
+    <t>GGTGC</t>
+  </si>
+  <si>
+    <t>AGTTC</t>
+  </si>
+  <si>
+    <t>TCACT</t>
+  </si>
+  <si>
+    <t>TCACA</t>
+  </si>
+  <si>
+    <t>CTGCT</t>
+  </si>
+  <si>
+    <t>CTTAT</t>
+  </si>
+  <si>
+    <t>ACCTG</t>
+  </si>
+  <si>
+    <t>TACAA</t>
+  </si>
+  <si>
+    <t>GATGA</t>
+  </si>
+  <si>
+    <t>CAATA</t>
+  </si>
+  <si>
+    <t>CGGTA</t>
+  </si>
+  <si>
+    <t>GGATA</t>
+  </si>
+  <si>
+    <t>GCACA</t>
+  </si>
+  <si>
+    <t>GTACT</t>
+  </si>
+  <si>
+    <t>GACTG</t>
+  </si>
+  <si>
+    <t>GGCTA</t>
+  </si>
+  <si>
+    <t>GACTT</t>
+  </si>
+  <si>
+    <t>GACTC</t>
+  </si>
+  <si>
+    <t>CGTGC</t>
+  </si>
+  <si>
+    <t>ATTGC</t>
+  </si>
+  <si>
+    <t>ACTGC</t>
+  </si>
+  <si>
+    <t>AGTCC</t>
+  </si>
+  <si>
+    <t>AGTAC</t>
+  </si>
+  <si>
     <t>AGTGG</t>
   </si>
   <si>
-    <t>AGTGA</t>
-  </si>
-  <si>
-    <t>GGTGC</t>
-  </si>
-  <si>
-    <t>AGTCC</t>
-  </si>
-  <si>
-    <t>AGTTC</t>
+    <t>AATGC</t>
+  </si>
+  <si>
+    <t>AGTGT</t>
+  </si>
+  <si>
+    <t>GCACG</t>
   </si>
   <si>
     <t>TCAAG</t>
   </si>
   <si>
-    <t>TCACT</t>
-  </si>
-  <si>
-    <t>TCACA</t>
-  </si>
-  <si>
-    <t>CTGCT</t>
-  </si>
-  <si>
-    <t>CTTAT</t>
-  </si>
-  <si>
-    <t>CAGAT</t>
-  </si>
-  <si>
-    <t>TGCTA</t>
-  </si>
-  <si>
-    <t>ACCTG</t>
-  </si>
-  <si>
-    <t>TACAA</t>
-  </si>
-  <si>
-    <t>GATGA</t>
-  </si>
-  <si>
-    <t>CAATA</t>
-  </si>
-  <si>
-    <t>CGGTA</t>
-  </si>
-  <si>
-    <t>GGATA</t>
-  </si>
-  <si>
-    <t>GCACA</t>
-  </si>
-  <si>
-    <t>GTACT</t>
-  </si>
-  <si>
-    <t>GACTG</t>
-  </si>
-  <si>
-    <t>GGCTA</t>
-  </si>
-  <si>
-    <t>GACTT</t>
-  </si>
-  <si>
-    <t>CGTGC</t>
-  </si>
-  <si>
-    <t>ACTGC</t>
-  </si>
-  <si>
-    <t>AGTAC</t>
-  </si>
-  <si>
-    <t>AATGC</t>
-  </si>
-  <si>
-    <t>AGTGT</t>
-  </si>
-  <si>
-    <t>TCAGG</t>
-  </si>
-  <si>
-    <t>GCACG</t>
-  </si>
-  <si>
-    <t>TCTCG</t>
-  </si>
-  <si>
     <t>CGGAT</t>
   </si>
   <si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>GCATT</t>
-  </si>
-  <si>
-    <t>GCATG</t>
   </si>
   <si>
     <t>GCATA</t>
@@ -662,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -719,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -739,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -759,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -779,7 +776,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -799,7 +796,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -839,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -859,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -879,7 +876,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -919,7 +916,7 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -939,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -959,7 +956,7 @@
         <v>31</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -979,7 +976,7 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -990,10 +987,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -1050,10 +1047,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -1070,10 +1067,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -1090,10 +1087,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -1110,10 +1107,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -1130,16 +1127,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1150,16 +1147,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1170,10 +1167,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
@@ -1190,10 +1187,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -1270,10 +1267,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -1290,10 +1287,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
@@ -1310,10 +1307,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
@@ -1350,10 +1347,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
         <v>51</v>
@@ -1370,10 +1367,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
@@ -1390,16 +1387,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1410,16 +1407,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1430,16 +1427,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1450,10 +1447,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
@@ -1470,10 +1467,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
@@ -1490,10 +1487,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
@@ -1510,10 +1507,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
@@ -1530,10 +1527,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
@@ -1550,10 +1547,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
         <v>61</v>
@@ -1570,10 +1567,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
         <v>62</v>
@@ -1590,10 +1587,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
@@ -1610,10 +1607,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
@@ -1730,10 +1727,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
@@ -1750,10 +1747,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
         <v>71</v>
@@ -1770,10 +1767,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
         <v>72</v>
@@ -1930,10 +1927,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -1950,10 +1947,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -1970,10 +1967,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
         <v>82</v>
@@ -1990,19 +1987,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2010,16 +2007,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -2030,10 +2027,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
@@ -2050,10 +2047,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
@@ -2070,10 +2067,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>87</v>
@@ -2090,10 +2087,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D72" t="s">
         <v>88</v>
@@ -2110,10 +2107,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
@@ -2130,10 +2127,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
@@ -2190,10 +2187,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
         <v>93</v>
@@ -2210,10 +2207,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
         <v>94</v>
@@ -2230,10 +2227,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
         <v>95</v>
@@ -2242,26 +2239,6 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
         <v>2</v>
       </c>
     </row>
